--- a/generated_docs/WR_89732091_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/27/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">

--- a/generated_docs/WR_89732091_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I127"/>
+  <dimension ref="A2:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15086.45</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>350.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>63.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-D-42P-EP-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,22 +829,22 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F-C</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
@@ -867,18 +867,18 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>GYF-38-78W-I-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -901,13 +901,13 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
@@ -935,18 +935,18 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>79.34999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>GYW-38C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,26 +956,26 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
@@ -1003,1793 +1003,1904 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr">
+        <is>
+          <t>DEC-20AL-C</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10" t="inlineStr"/>
+      <c r="H24" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C25" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E25" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr"/>
+      <c r="H25" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D26" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10" t="inlineStr"/>
+      <c r="H26" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B27" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C27" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D27" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E27" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr"/>
+      <c r="H27" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="inlineStr">
+        <is>
+          <t>GYF-38-D-42P-EP-C</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D28" s="9" t="inlineStr">
+        <is>
+          <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
+        </is>
+      </c>
+      <c r="E28" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="inlineStr"/>
+      <c r="H28" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B29" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C29" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E29" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="n">
+        <v>40</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr"/>
+      <c r="H29" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG2</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>SVD,Service Grip,#2</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F-C</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr"/>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>CAA-BRCP</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>Break/Rem Conc. Pavement(sq.ft),Cndt</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H24" s="16" t="n">
-        <v>1781.11</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="H33" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Friday (07/25/2025)</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C28" s="8" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G28" s="8" t="inlineStr">
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H28" s="8" t="inlineStr">
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="9" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B29" s="9" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C29" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D29" s="9" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E29" s="9" t="inlineStr">
+      <c r="E38" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F38" s="10" t="n">
         <v>142</v>
       </c>
-      <c r="G29" s="10" t="inlineStr"/>
-      <c r="H29" s="11" t="n">
-        <v>332.28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B30" s="12" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>DEC-20AL-C</t>
         </is>
       </c>
-      <c r="C30" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D30" s="12" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
-      <c r="E30" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="n">
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="13" t="inlineStr"/>
-      <c r="H30" s="14" t="n">
-        <v>858.75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="9" t="inlineStr">
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-ARM-C</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>PLD, Eyebolt Deadend, Arm,Corrosive</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C31" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D31" s="9" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E31" s="9" t="inlineStr">
+      <c r="E41" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F41" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="G31" s="10" t="inlineStr"/>
-      <c r="H31" s="11" t="n">
-        <v>114.66</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B32" s="12" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D32" s="12" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E32" s="12" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F32" s="13" t="n">
+      <c r="F42" s="10" t="n">
         <v>49</v>
       </c>
-      <c r="G32" s="13" t="inlineStr"/>
-      <c r="H32" s="14" t="n">
-        <v>35.28</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="9" t="inlineStr">
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Point 07</t>
         </is>
       </c>
-      <c r="B33" s="9" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C33" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E33" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="n">
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="inlineStr"/>
-      <c r="H33" s="11" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B34" s="12" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
         <is>
           <t>CND-SA10</t>
         </is>
       </c>
-      <c r="C34" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D34" s="12" t="inlineStr">
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
         <is>
           <t>CND,Stirrup,Ampact,1/0</t>
         </is>
       </c>
-      <c r="E34" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="13" t="inlineStr"/>
-      <c r="H34" s="14" t="n">
-        <v>12.49</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B46" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
+      <c r="E46" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F46" s="10" t="n">
         <v>95</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>222.3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F36" s="13" t="n">
+      <c r="F47" s="13" t="n">
         <v>95</v>
       </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>68.40000000000001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X-C</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B49" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B50" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
+      <c r="E50" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F50" s="10" t="n">
         <v>125</v>
       </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>292.5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="inlineStr">
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B51" s="12" t="inlineStr">
         <is>
           <t>GYF-38-D-42P-EP-C</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="12" t="inlineStr">
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,42in Pole mt,EyePlate,Corr</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="inlineStr"/>
-      <c r="H40" s="14" t="n">
-        <v>79.34999999999999</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>GYW-38C</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. Corrosive (16,200 lbs)</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>40</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B55" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>220.72</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="15" t="inlineStr">
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H44" s="16" t="n">
-        <v>3145.52</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
+      <c r="H57" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="7" t="inlineStr">
         <is>
           <t>Saturday (07/26/2025)</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C48" s="8" t="inlineStr">
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D48" s="8" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E48" s="8" t="inlineStr">
+      <c r="E61" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G48" s="8" t="inlineStr">
+      <c r="G61" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H48" s="8" t="inlineStr">
+      <c r="H61" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B62" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="C62" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
+      <c r="E62" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10" t="inlineStr"/>
+      <c r="H62" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B50" s="12" t="inlineStr">
+      <c r="B63" s="12" t="inlineStr">
         <is>
           <t>PIN-XAL-C</t>
         </is>
       </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
+      <c r="C63" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D63" s="12" t="inlineStr">
         <is>
           <t>Pin,Crossarm Light,Corrosive</t>
         </is>
       </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
+      <c r="E63" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F63" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13" t="inlineStr"/>
+      <c r="H63" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B51" s="9" t="inlineStr">
+      <c r="B64" s="9" t="inlineStr">
         <is>
           <t>SAA-DI-10-C</t>
         </is>
       </c>
-      <c r="C51" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="inlineStr">
+      <c r="C64" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
         <is>
           <t>SAA,Dead End I Bolt,1/0,Corr</t>
         </is>
       </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
+      <c r="E64" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
+      <c r="G64" s="10" t="inlineStr"/>
+      <c r="H64" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="12" t="inlineStr">
         <is>
           <t>Point 05</t>
         </is>
       </c>
-      <c r="B52" s="12" t="inlineStr">
+      <c r="B65" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C52" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="12" t="inlineStr">
+      <c r="C65" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D65" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
+      <c r="E65" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F65" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13" t="inlineStr"/>
+      <c r="H65" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B53" s="9" t="inlineStr">
+      <c r="B66" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C53" s="9" t="inlineStr">
+      <c r="C66" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D53" s="9" t="inlineStr">
+      <c r="D66" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E53" s="9" t="inlineStr">
+      <c r="E66" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F53" s="10" t="n">
+      <c r="F66" s="10" t="n">
         <v>54</v>
       </c>
-      <c r="G53" s="10" t="inlineStr"/>
-      <c r="H53" s="11" t="n">
-        <v>50.22</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
+      <c r="G66" s="10" t="inlineStr"/>
+      <c r="H66" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="12" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B54" s="12" t="inlineStr">
+      <c r="B67" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C54" s="12" t="inlineStr">
+      <c r="C67" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D54" s="12" t="inlineStr">
+      <c r="D67" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="inlineStr"/>
-      <c r="H54" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
+      <c r="E67" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F67" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" s="13" t="inlineStr"/>
+      <c r="H67" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Point 08</t>
         </is>
       </c>
-      <c r="B55" s="9" t="inlineStr">
+      <c r="B68" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C55" s="9" t="inlineStr">
+      <c r="C68" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="D68" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
+      <c r="E68" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="10" t="inlineStr"/>
+      <c r="H68" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="12" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B56" s="12" t="inlineStr">
+      <c r="B69" s="12" t="inlineStr">
         <is>
           <t>CON-10-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C56" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="12" t="inlineStr">
+      <c r="C69" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D69" s="12" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,One,Bare,Reel</t>
         </is>
       </c>
-      <c r="E56" s="12" t="inlineStr">
+      <c r="E69" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F56" s="13" t="n">
+      <c r="F69" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="G56" s="13" t="inlineStr"/>
-      <c r="H56" s="14" t="n">
-        <v>88.92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="9" t="inlineStr">
+      <c r="G69" s="13" t="inlineStr"/>
+      <c r="H69" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B57" s="9" t="inlineStr">
+      <c r="B70" s="9" t="inlineStr">
         <is>
           <t>CON-10-AAA-3-P</t>
         </is>
       </c>
-      <c r="C57" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D57" s="9" t="inlineStr">
+      <c r="C70" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D70" s="9" t="inlineStr">
         <is>
           <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
-      <c r="E57" s="9" t="inlineStr">
+      <c r="E70" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F57" s="10" t="n">
+      <c r="F70" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="G57" s="10" t="inlineStr"/>
-      <c r="H57" s="11" t="n">
-        <v>27.36</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="inlineStr">
+      <c r="G70" s="10" t="inlineStr"/>
+      <c r="H70" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="12" t="inlineStr">
         <is>
           <t>Point 09</t>
         </is>
       </c>
-      <c r="B58" s="12" t="inlineStr">
+      <c r="B71" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C71" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D71" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E71" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F71" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G71" s="13" t="inlineStr"/>
+      <c r="H71" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C58" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="12" t="inlineStr">
+      <c r="C72" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D72" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E58" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="13" t="inlineStr"/>
-      <c r="H58" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="9" t="inlineStr">
+      <c r="E72" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" s="10" t="inlineStr"/>
+      <c r="H72" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="12" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B59" s="9" t="inlineStr">
+      <c r="B73" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B</t>
         </is>
       </c>
-      <c r="C59" s="9" t="inlineStr">
+      <c r="C73" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D59" s="9" t="inlineStr">
+      <c r="D73" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
         </is>
       </c>
-      <c r="E59" s="9" t="inlineStr">
+      <c r="E73" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F59" s="10" t="n">
+      <c r="F73" s="13" t="n">
         <v>38</v>
       </c>
-      <c r="G59" s="10" t="inlineStr"/>
-      <c r="H59" s="11" t="n">
-        <v>35.34</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
+      <c r="G73" s="13" t="inlineStr"/>
+      <c r="H73" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B60" s="12" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C60" s="12" t="inlineStr">
+      <c r="C74" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D60" s="12" t="inlineStr">
+      <c r="D74" s="9" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E60" s="12" t="inlineStr">
+      <c r="E74" s="9" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F74" s="10" t="n">
         <v>38</v>
       </c>
-      <c r="G60" s="13" t="inlineStr"/>
-      <c r="H60" s="14" t="n">
-        <v>35.34</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="9" t="inlineStr">
+      <c r="G74" s="10" t="inlineStr"/>
+      <c r="H74" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="12" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B61" s="9" t="inlineStr">
+      <c r="B75" s="12" t="inlineStr">
         <is>
           <t>CON-4-CHD-1-B</t>
         </is>
       </c>
-      <c r="C61" s="9" t="inlineStr">
+      <c r="C75" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="D75" s="12" t="inlineStr">
         <is>
           <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
-      <c r="E61" s="9" t="inlineStr">
+      <c r="E75" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F61" s="10" t="n">
+      <c r="F75" s="13" t="n">
         <v>114</v>
       </c>
-      <c r="G61" s="10" t="inlineStr"/>
-      <c r="H61" s="11" t="n">
-        <v>106.02</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
+      <c r="G75" s="13" t="inlineStr"/>
+      <c r="H75" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B62" s="12" t="inlineStr">
+      <c r="B76" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C62" s="12" t="inlineStr">
+      <c r="C76" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D62" s="12" t="inlineStr">
+      <c r="D76" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E62" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13" t="inlineStr"/>
-      <c r="H62" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="9" t="inlineStr">
+      <c r="E76" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="10" t="inlineStr"/>
+      <c r="H76" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="12" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B63" s="9" t="inlineStr">
+      <c r="B77" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-C</t>
         </is>
       </c>
-      <c r="C63" s="9" t="inlineStr">
+      <c r="C77" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D63" s="9" t="inlineStr">
+      <c r="D77" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
-      <c r="E63" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="10" t="inlineStr"/>
-      <c r="H63" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
+      <c r="E77" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="13" t="inlineStr"/>
+      <c r="H77" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>Point 10</t>
         </is>
       </c>
-      <c r="B64" s="12" t="inlineStr">
+      <c r="B78" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C64" s="12" t="inlineStr">
+      <c r="C78" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D64" s="12" t="inlineStr">
+      <c r="D78" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E64" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F64" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="inlineStr"/>
-      <c r="H64" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="9" t="inlineStr">
+      <c r="E78" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" s="10" t="inlineStr"/>
+      <c r="H78" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="12" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B65" s="9" t="inlineStr">
+      <c r="B79" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C79" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E79" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="13" t="inlineStr"/>
+      <c r="H79" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="inlineStr">
         <is>
           <t>SAA-3-CV-C</t>
         </is>
       </c>
-      <c r="C65" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D65" s="9" t="inlineStr">
+      <c r="C80" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D80" s="9" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E65" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F65" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10" t="inlineStr"/>
-      <c r="H65" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="12" t="inlineStr">
+      <c r="E80" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="10" t="inlineStr"/>
+      <c r="H80" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="12" t="inlineStr">
         <is>
           <t>Point 11</t>
         </is>
       </c>
-      <c r="B66" s="12" t="inlineStr">
+      <c r="B81" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20-C</t>
         </is>
       </c>
-      <c r="C66" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D66" s="12" t="inlineStr">
+      <c r="C81" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D81" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
-      <c r="E66" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F66" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="13" t="inlineStr"/>
-      <c r="H66" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="9" t="inlineStr">
+      <c r="E81" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13" t="inlineStr"/>
+      <c r="H81" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C82" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E82" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G82" s="10" t="inlineStr"/>
+      <c r="H82" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="12" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B67" s="9" t="inlineStr">
+      <c r="B83" s="12" t="inlineStr">
         <is>
           <t>BKT-AC18-F-C</t>
         </is>
       </c>
-      <c r="C67" s="9" t="inlineStr">
+      <c r="C83" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="D83" s="12" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls,Corr</t>
         </is>
       </c>
-      <c r="E67" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="10" t="inlineStr"/>
-      <c r="H67" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="12" t="inlineStr">
+      <c r="E83" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="13" t="inlineStr"/>
+      <c r="H83" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="inlineStr">
         <is>
           <t>Point 12</t>
         </is>
       </c>
-      <c r="B68" s="12" t="inlineStr">
+      <c r="B84" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C84" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D84" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E84" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="10" t="inlineStr"/>
+      <c r="H84" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B85" s="12" t="inlineStr">
         <is>
           <t>CON-2-AAA-1-B-REEL</t>
         </is>
       </c>
-      <c r="C68" s="12" t="inlineStr">
+      <c r="C85" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D68" s="12" t="inlineStr">
+      <c r="D85" s="12" t="inlineStr">
         <is>
           <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
         </is>
       </c>
-      <c r="E68" s="12" t="inlineStr">
+      <c r="E85" s="12" t="inlineStr">
         <is>
           <t>FT</t>
         </is>
       </c>
-      <c r="F68" s="13" t="n">
+      <c r="F85" s="13" t="n">
         <v>102</v>
       </c>
-      <c r="G68" s="13" t="inlineStr"/>
-      <c r="H68" s="14" t="n">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="inlineStr">
-        <is>
-          <t>CON-4-CHD-1-B</t>
-        </is>
-      </c>
-      <c r="C69" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D69" s="9" t="inlineStr">
-        <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
-        </is>
-      </c>
-      <c r="E69" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="n">
-        <v>306</v>
-      </c>
-      <c r="G69" s="10" t="inlineStr"/>
-      <c r="H69" s="11" t="n">
-        <v>284.58</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B70" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C70" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D70" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E70" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13" t="inlineStr"/>
-      <c r="H70" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C71" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D71" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E71" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="10" t="inlineStr"/>
-      <c r="H71" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B72" s="12" t="inlineStr">
-        <is>
-          <t>SAA-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C72" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D72" s="12" t="inlineStr">
-        <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E72" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="13" t="inlineStr"/>
-      <c r="H72" s="14" t="n">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="inlineStr">
-        <is>
-          <t>CON-10-AAA-3-P</t>
-        </is>
-      </c>
-      <c r="C73" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="9" t="inlineStr">
-        <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
-        </is>
-      </c>
-      <c r="E73" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F73" s="10" t="n">
-        <v>125</v>
-      </c>
-      <c r="G73" s="10" t="inlineStr"/>
-      <c r="H73" s="11" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B74" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-2-P</t>
-        </is>
-      </c>
-      <c r="C74" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,Two,Poly</t>
-        </is>
-      </c>
-      <c r="E74" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F74" s="13" t="n">
-        <v>173</v>
-      </c>
-      <c r="G74" s="13" t="inlineStr"/>
-      <c r="H74" s="14" t="n">
-        <v>124.56</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C75" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D75" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E75" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="10" t="inlineStr"/>
-      <c r="H75" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="12" t="inlineStr">
-        <is>
-          <t>Point 14</t>
-        </is>
-      </c>
-      <c r="B76" s="12" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C76" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D76" s="12" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
-        </is>
-      </c>
-      <c r="E76" s="12" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F76" s="13" t="n">
-        <v>118</v>
-      </c>
-      <c r="G76" s="13" t="inlineStr"/>
-      <c r="H76" s="14" t="n">
-        <v>109.74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-ALA-RS</t>
-        </is>
-      </c>
-      <c r="C77" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D77" s="9" t="inlineStr">
-        <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
-        </is>
-      </c>
-      <c r="E77" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G77" s="10" t="inlineStr"/>
-      <c r="H77" s="11" t="n">
-        <v>587.49</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="12" t="inlineStr">
-        <is>
-          <t>Point 15</t>
-        </is>
-      </c>
-      <c r="B78" s="12" t="inlineStr">
-        <is>
-          <t>SVD-3-CV-C</t>
-        </is>
-      </c>
-      <c r="C78" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D78" s="12" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
-        </is>
-      </c>
-      <c r="E78" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="G78" s="13" t="inlineStr"/>
-      <c r="H78" s="14" t="n">
-        <v>140.16</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="inlineStr">
-        <is>
-          <t>DEC-20CU</t>
-        </is>
-      </c>
-      <c r="C79" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D79" s="9" t="inlineStr">
-        <is>
-          <t>DEC,#6 - #2/0 CU</t>
-        </is>
-      </c>
-      <c r="E79" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10" t="inlineStr"/>
-      <c r="H79" s="11" t="n">
-        <v>95.15000000000001</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="12" t="inlineStr">
-        <is>
-          <t>Point 17</t>
-        </is>
-      </c>
-      <c r="B80" s="12" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C80" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D80" s="12" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E80" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="13" t="inlineStr"/>
-      <c r="H80" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H81" s="16" t="n">
-        <v>2968.839999999999</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="7" t="inlineStr">
-        <is>
-          <t>Sunday (07/27/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B85" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C85" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D85" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E85" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F85" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G85" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H85" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G85" s="13" t="inlineStr"/>
+      <c r="H85" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>DEC-20AL-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
@@ -2799,41 +2910,41 @@
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F86" s="10" t="n">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>285.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2846,28 +2957,28 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2880,28 +2991,28 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="12" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 12</t>
         </is>
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-3-CV-C</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -2914,28 +3025,28 @@
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -2944,32 +3055,32 @@
         </is>
       </c>
       <c r="F90" s="10" t="n">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>50.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>CON-2-AAA-2-P</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>CON,#2 AWG,Alum Alloy,Two,Poly</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -2978,32 +3089,32 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>150.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="9" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>GYF-38-42W-I-C</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3016,13 +3127,13 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="12" t="inlineStr">
         <is>
-          <t>Point 08</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B93" s="12" t="inlineStr">
@@ -3032,7 +3143,7 @@
       </c>
       <c r="C93" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D93" s="12" t="inlineStr">
@@ -3046,66 +3157,66 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>CON-2-AAA-1-B</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F94" s="10" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3118,28 +3229,28 @@
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="9" t="inlineStr">
         <is>
-          <t>Point 10</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>POL-35-5</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>Pole,35ft,Class 5</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3148,17 +3259,17 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B97" s="12" t="inlineStr">
@@ -3182,17 +3293,17 @@
         </is>
       </c>
       <c r="F97" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G97" s="13" t="inlineStr"/>
       <c r="H97" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B98" s="9" t="inlineStr">
@@ -3216,32 +3327,32 @@
         </is>
       </c>
       <c r="F98" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G98" s="10" t="inlineStr"/>
       <c r="H98" s="11" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="12" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B99" s="12" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>DEC-20CU</t>
         </is>
       </c>
       <c r="C99" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D99" s="12" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>DEC,#6 - #2/0 CU</t>
         </is>
       </c>
       <c r="E99" s="12" t="inlineStr">
@@ -3254,18 +3365,18 @@
       </c>
       <c r="G99" s="13" t="inlineStr"/>
       <c r="H99" s="14" t="n">
-        <v>62.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="9" t="inlineStr">
         <is>
-          <t>Point 11</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B100" s="9" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C100" s="9" t="inlineStr">
@@ -3275,7 +3386,7 @@
       </c>
       <c r="D100" s="9" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E100" s="9" t="inlineStr">
@@ -3288,188 +3399,77 @@
       </c>
       <c r="G100" s="10" t="inlineStr"/>
       <c r="H100" s="11" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B101" s="12" t="inlineStr">
-        <is>
-          <t>CND-S2O</t>
-        </is>
-      </c>
-      <c r="C101" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D101" s="12" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2 Open</t>
-        </is>
-      </c>
-      <c r="E101" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F101" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="13" t="inlineStr"/>
-      <c r="H101" s="14" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="inlineStr">
-        <is>
-          <t>CON-2-AAA-1-B</t>
-        </is>
-      </c>
-      <c r="C102" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D102" s="9" t="inlineStr">
-        <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
-        </is>
-      </c>
-      <c r="E102" s="9" t="inlineStr">
-        <is>
-          <t>FT</t>
-        </is>
-      </c>
-      <c r="F102" s="10" t="n">
-        <v>102</v>
-      </c>
-      <c r="G102" s="10" t="inlineStr"/>
-      <c r="H102" s="11" t="n">
-        <v>94.86</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B103" s="12" t="inlineStr">
-        <is>
-          <t>EQL-1-4-C-2-S-X-C</t>
-        </is>
-      </c>
-      <c r="C103" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D103" s="12" t="inlineStr">
-        <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
-        </is>
-      </c>
-      <c r="E103" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F103" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" s="13" t="inlineStr"/>
-      <c r="H103" s="14" t="n">
-        <v>116</v>
+      <c r="A101" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H101" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C104" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D104" s="9" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E104" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F104" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G104" s="10" t="inlineStr"/>
-      <c r="H104" s="11" t="n">
-        <v>60.43</v>
+      <c r="A104" s="7" t="inlineStr">
+        <is>
+          <t>Sunday (07/27/2025)</t>
+        </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>Point 12</t>
-        </is>
-      </c>
-      <c r="B105" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-5</t>
-        </is>
-      </c>
-      <c r="C105" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D105" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 5</t>
-        </is>
-      </c>
-      <c r="E105" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F105" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G105" s="13" t="inlineStr"/>
-      <c r="H105" s="14" t="n">
-        <v>198.88</v>
+      <c r="A105" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B105" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C105" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D105" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E105" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G105" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H105" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="9" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B106" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>DEC-20AL-C</t>
         </is>
       </c>
       <c r="C106" s="9" t="inlineStr">
@@ -3479,7 +3479,7 @@
       </c>
       <c r="D106" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS,Corrosive</t>
         </is>
       </c>
       <c r="E106" s="9" t="inlineStr">
@@ -3488,32 +3488,32 @@
         </is>
       </c>
       <c r="F106" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G106" s="10" t="inlineStr"/>
       <c r="H106" s="11" t="n">
-        <v>26.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="12" t="inlineStr">
         <is>
-          <t>Point 12</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B107" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C107" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D107" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E107" s="12" t="inlineStr">
@@ -3526,18 +3526,18 @@
       </c>
       <c r="G107" s="13" t="inlineStr"/>
       <c r="H107" s="14" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B108" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C108" s="9" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D108" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E108" s="9" t="inlineStr">
@@ -3560,86 +3560,86 @@
       </c>
       <c r="G108" s="10" t="inlineStr"/>
       <c r="H108" s="11" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B109" s="12" t="inlineStr">
         <is>
-          <t>CON-2-AAA-1-B-REEL</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C109" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D109" s="12" t="inlineStr">
         <is>
-          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E109" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F109" s="13" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13" t="inlineStr"/>
       <c r="H109" s="14" t="n">
-        <v>109.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 07</t>
         </is>
       </c>
       <c r="B110" s="9" t="inlineStr">
         <is>
-          <t>CON-4-AAA-1-W</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C110" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D110" s="9" t="inlineStr">
         <is>
-          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E110" s="9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F110" s="10" t="n">
-        <v>348</v>
+        <v>6</v>
       </c>
       <c r="G110" s="10" t="inlineStr"/>
       <c r="H110" s="11" t="n">
-        <v>323.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B111" s="12" t="inlineStr">
         <is>
-          <t>CON-4-CHD-1-B</t>
+          <t>CON-2-AAA-1-B</t>
         </is>
       </c>
       <c r="C111" s="12" t="inlineStr">
@@ -3649,7 +3649,7 @@
       </c>
       <c r="D111" s="12" t="inlineStr">
         <is>
-          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
         </is>
       </c>
       <c r="E111" s="12" t="inlineStr">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="F111" s="13" t="n">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="G111" s="13" t="inlineStr"/>
       <c r="H111" s="14" t="n">
-        <v>329.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B112" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CON-4-CHD-1-B</t>
         </is>
       </c>
       <c r="C112" s="9" t="inlineStr">
@@ -3683,31 +3683,31 @@
       </c>
       <c r="D112" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
         </is>
       </c>
       <c r="E112" s="9" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F112" s="10" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G112" s="10" t="inlineStr"/>
       <c r="H112" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B113" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C113" s="12" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="D113" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E113" s="12" t="inlineStr">
@@ -3726,22 +3726,22 @@
         </is>
       </c>
       <c r="F113" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" s="13" t="inlineStr"/>
       <c r="H113" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B114" s="9" t="inlineStr">
         <is>
-          <t>SAA-3-CV-C</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C114" s="9" t="inlineStr">
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D114" s="9" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis,Corr</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E114" s="9" t="inlineStr">
@@ -3764,18 +3764,18 @@
       </c>
       <c r="G114" s="10" t="inlineStr"/>
       <c r="H114" s="11" t="n">
-        <v>17.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B115" s="12" t="inlineStr">
         <is>
-          <t>POL-40-4</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C115" s="12" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D115" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 4</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E115" s="12" t="inlineStr">
@@ -3794,22 +3794,22 @@
         </is>
       </c>
       <c r="F115" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" s="13" t="inlineStr"/>
       <c r="H115" s="14" t="n">
-        <v>198.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 08</t>
         </is>
       </c>
       <c r="B116" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C116" s="9" t="inlineStr">
@@ -3819,7 +3819,7 @@
       </c>
       <c r="D116" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E116" s="9" t="inlineStr">
@@ -3828,32 +3828,32 @@
         </is>
       </c>
       <c r="F116" s="10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G116" s="10" t="inlineStr"/>
       <c r="H116" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B117" s="12" t="inlineStr">
         <is>
-          <t>CND-PBC10A</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C117" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D117" s="12" t="inlineStr">
         <is>
-          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E117" s="12" t="inlineStr">
@@ -3866,28 +3866,28 @@
       </c>
       <c r="G117" s="13" t="inlineStr"/>
       <c r="H117" s="14" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="9" t="inlineStr">
         <is>
-          <t>Point 07</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B118" s="9" t="inlineStr">
         <is>
-          <t>CND-PBC10A</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C118" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D118" s="9" t="inlineStr">
         <is>
-          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -3896,22 +3896,22 @@
         </is>
       </c>
       <c r="F118" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" s="10" t="inlineStr"/>
       <c r="H118" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 09</t>
         </is>
       </c>
       <c r="B119" s="12" t="inlineStr">
         <is>
-          <t>CND-PBC10A</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C119" s="12" t="inlineStr">
@@ -3921,7 +3921,7 @@
       </c>
       <c r="D119" s="12" t="inlineStr">
         <is>
-          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E119" s="12" t="inlineStr">
@@ -3930,32 +3930,32 @@
         </is>
       </c>
       <c r="F119" s="13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G119" s="13" t="inlineStr"/>
       <c r="H119" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B120" s="9" t="inlineStr">
         <is>
-          <t>CND-PBC10A</t>
+          <t>POL-35-5</t>
         </is>
       </c>
       <c r="C120" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D120" s="9" t="inlineStr">
         <is>
-          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+          <t>Pole,35ft,Class 5</t>
         </is>
       </c>
       <c r="E120" s="9" t="inlineStr">
@@ -3964,32 +3964,32 @@
         </is>
       </c>
       <c r="F120" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" s="10" t="inlineStr"/>
       <c r="H120" s="11" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 10</t>
         </is>
       </c>
       <c r="B121" s="12" t="inlineStr">
         <is>
-          <t>CND-PBC10A-C</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C121" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D121" s="12" t="inlineStr">
         <is>
-          <t>CND,Pri.BreakerClamp #4-1/0 AL,Corrosive</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E121" s="12" t="inlineStr">
@@ -3998,22 +3998,22 @@
         </is>
       </c>
       <c r="F121" s="13" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G121" s="13" t="inlineStr"/>
       <c r="H121" s="14" t="n">
-        <v>858.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B122" s="9" t="inlineStr">
         <is>
-          <t>CND-PBC10A-C</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C122" s="9" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="D122" s="9" t="inlineStr">
         <is>
-          <t>CND,Pri.BreakerClamp #4-1/0 AL,Corrosive</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E122" s="9" t="inlineStr">
@@ -4032,37 +4032,37 @@
         </is>
       </c>
       <c r="F122" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G122" s="10" t="inlineStr"/>
       <c r="H122" s="11" t="n">
-        <v>286.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="12" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B123" s="12" t="inlineStr">
         <is>
-          <t>CND-SNI-40</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C123" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D123" s="12" t="inlineStr">
         <is>
-          <t>#NO MATCH</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E123" s="12" t="inlineStr">
         <is>
-          <t>#NO MATCH</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F123" s="13" t="n">
@@ -4070,28 +4070,28 @@
       </c>
       <c r="G123" s="13" t="inlineStr"/>
       <c r="H123" s="14" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="9" t="inlineStr">
         <is>
-          <t>Point 09</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B124" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-40</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C124" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D124" s="9" t="inlineStr">
         <is>
-          <t>Compression Connector H-Tap Assembly 4/0</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E124" s="9" t="inlineStr">
@@ -4100,11 +4100,11 @@
         </is>
       </c>
       <c r="F124" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G124" s="10" t="inlineStr"/>
       <c r="H124" s="11" t="n">
-        <v>38.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B125" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-40</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C125" s="12" t="inlineStr">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="D125" s="12" t="inlineStr">
         <is>
-          <t>Compression Connector H-Tap Assembly 4/0</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E125" s="12" t="inlineStr">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="F125" s="13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G125" s="13" t="inlineStr"/>
       <c r="H125" s="14" t="n">
-        <v>114.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 11</t>
         </is>
       </c>
       <c r="B126" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-40</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C126" s="9" t="inlineStr">
@@ -4159,7 +4159,7 @@
       </c>
       <c r="D126" s="9" t="inlineStr">
         <is>
-          <t>Compression Connector H-Tap Assembly 4/0</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E126" s="9" t="inlineStr">
@@ -4168,42 +4168,1232 @@
         </is>
       </c>
       <c r="F126" s="10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G126" s="10" t="inlineStr"/>
       <c r="H126" s="11" t="n">
-        <v>114.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="15" t="inlineStr">
+      <c r="A127" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B127" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C127" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E127" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" s="13" t="inlineStr"/>
+      <c r="H127" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D128" s="9" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Coils</t>
+        </is>
+      </c>
+      <c r="E128" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F128" s="10" t="n">
+        <v>102</v>
+      </c>
+      <c r="G128" s="10" t="inlineStr"/>
+      <c r="H128" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B129" s="12" t="inlineStr">
+        <is>
+          <t>EQL-1-4-C-2-S-X-C</t>
+        </is>
+      </c>
+      <c r="C129" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D129" s="12" t="inlineStr">
+        <is>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr,Corr</t>
+        </is>
+      </c>
+      <c r="E129" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F129" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" s="13" t="inlineStr"/>
+      <c r="H129" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C130" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D130" s="9" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E130" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F130" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" s="10" t="inlineStr"/>
+      <c r="H130" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B131" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C131" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D131" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E131" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" s="13" t="inlineStr"/>
+      <c r="H131" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B132" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C132" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D132" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E132" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F132" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G132" s="10" t="inlineStr"/>
+      <c r="H132" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="12" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B133" s="12" t="inlineStr">
+        <is>
+          <t>XCO-15-100-7</t>
+        </is>
+      </c>
+      <c r="C133" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D133" s="12" t="inlineStr">
+        <is>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+        </is>
+      </c>
+      <c r="E133" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F133" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" s="13" t="inlineStr"/>
+      <c r="H133" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Point 12</t>
+        </is>
+      </c>
+      <c r="B134" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D134" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+        </is>
+      </c>
+      <c r="E134" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F134" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" s="10" t="inlineStr"/>
+      <c r="H134" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B135" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C135" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D135" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E135" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F135" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G135" s="13" t="inlineStr"/>
+      <c r="H135" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B136" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C136" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D136" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E136" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F136" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" s="10" t="inlineStr"/>
+      <c r="H136" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B137" s="12" t="inlineStr">
+        <is>
+          <t>SVD-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C137" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D137" s="12" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E137" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F137" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" s="13" t="inlineStr"/>
+      <c r="H137" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B138" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D138" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E138" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F138" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G138" s="10" t="inlineStr"/>
+      <c r="H138" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B139" s="12" t="inlineStr">
+        <is>
+          <t>CON-2-AAA-1-B-REEL</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D139" s="12" t="inlineStr">
+        <is>
+          <t>CON,#2 AWG,Alum Alloy,One,Bare,Reels</t>
+        </is>
+      </c>
+      <c r="E139" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F139" s="13" t="n">
+        <v>118</v>
+      </c>
+      <c r="G139" s="13" t="inlineStr"/>
+      <c r="H139" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B140" s="9" t="inlineStr">
+        <is>
+          <t>CON-4-AAA-1-W</t>
+        </is>
+      </c>
+      <c r="C140" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D140" s="9" t="inlineStr">
+        <is>
+          <t>CON,#4 AWG,Alum Alloy,One,WP</t>
+        </is>
+      </c>
+      <c r="E140" s="9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F140" s="10" t="n">
+        <v>348</v>
+      </c>
+      <c r="G140" s="10" t="inlineStr"/>
+      <c r="H140" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B141" s="12" t="inlineStr">
+        <is>
+          <t>CON-4-CHD-1-B</t>
+        </is>
+      </c>
+      <c r="C141" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D141" s="12" t="inlineStr">
+        <is>
+          <t>CON,#4,CU Hard Dr,One,Bare(Rem+Spl only)</t>
+        </is>
+      </c>
+      <c r="E141" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F141" s="13" t="n">
+        <v>354</v>
+      </c>
+      <c r="G141" s="13" t="inlineStr"/>
+      <c r="H141" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F142" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="10" t="inlineStr"/>
+      <c r="H142" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B143" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C143" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D143" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E143" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F143" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" s="13" t="inlineStr"/>
+      <c r="H143" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B144" s="9" t="inlineStr">
+        <is>
+          <t>SAA-3-CV-C</t>
+        </is>
+      </c>
+      <c r="C144" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D144" s="9" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis,Corr</t>
+        </is>
+      </c>
+      <c r="E144" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F144" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" s="10" t="inlineStr"/>
+      <c r="H144" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B145" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D145" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E145" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F145" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G145" s="13" t="inlineStr"/>
+      <c r="H145" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D146" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E146" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F146" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" s="10" t="inlineStr"/>
+      <c r="H146" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B147" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C147" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D147" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E147" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F147" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G147" s="13" t="inlineStr"/>
+      <c r="H147" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B148" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-4</t>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D148" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 4</t>
+        </is>
+      </c>
+      <c r="E148" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F148" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" s="10" t="inlineStr"/>
+      <c r="H148" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B149" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C149" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D149" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E149" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F149" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" s="13" t="inlineStr"/>
+      <c r="H149" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D150" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E150" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F150" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G150" s="10" t="inlineStr"/>
+      <c r="H150" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B151" s="12" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D151" s="12" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E151" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F151" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" s="13" t="inlineStr"/>
+      <c r="H151" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B152" s="9" t="inlineStr">
+        <is>
+          <t>CND-PBC10A</t>
+        </is>
+      </c>
+      <c r="C152" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D152" s="9" t="inlineStr">
+        <is>
+          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+        </is>
+      </c>
+      <c r="E152" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F152" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" s="10" t="inlineStr"/>
+      <c r="H152" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="12" t="inlineStr">
+        <is>
+          <t>Point 07</t>
+        </is>
+      </c>
+      <c r="B153" s="12" t="inlineStr">
+        <is>
+          <t>CND-PBC10A</t>
+        </is>
+      </c>
+      <c r="C153" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D153" s="12" t="inlineStr">
+        <is>
+          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+        </is>
+      </c>
+      <c r="E153" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F153" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G153" s="13" t="inlineStr"/>
+      <c r="H153" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B154" s="9" t="inlineStr">
+        <is>
+          <t>CND-PBC10A</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D154" s="9" t="inlineStr">
+        <is>
+          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+        </is>
+      </c>
+      <c r="E154" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F154" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" s="10" t="inlineStr"/>
+      <c r="H154" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B155" s="12" t="inlineStr">
+        <is>
+          <t>CND-PBC10A</t>
+        </is>
+      </c>
+      <c r="C155" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D155" s="12" t="inlineStr">
+        <is>
+          <t>CND,Pri.Breaker Clamp #4-1/0 AL</t>
+        </is>
+      </c>
+      <c r="E155" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F155" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G155" s="13" t="inlineStr"/>
+      <c r="H155" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B156" s="9" t="inlineStr">
+        <is>
+          <t>CND-PBC10A-C</t>
+        </is>
+      </c>
+      <c r="C156" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D156" s="9" t="inlineStr">
+        <is>
+          <t>CND,Pri.BreakerClamp #4-1/0 AL,Corrosive</t>
+        </is>
+      </c>
+      <c r="E156" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F156" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G156" s="10" t="inlineStr"/>
+      <c r="H156" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B157" s="12" t="inlineStr">
+        <is>
+          <t>CND-PBC10A-C</t>
+        </is>
+      </c>
+      <c r="C157" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D157" s="12" t="inlineStr">
+        <is>
+          <t>CND,Pri.BreakerClamp #4-1/0 AL,Corrosive</t>
+        </is>
+      </c>
+      <c r="E157" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F157" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" s="13" t="inlineStr"/>
+      <c r="H157" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B158" s="9" t="inlineStr">
+        <is>
+          <t>CND-SNI-40</t>
+        </is>
+      </c>
+      <c r="C158" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D158" s="9" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="E158" s="9" t="inlineStr">
+        <is>
+          <t>#NO MATCH</t>
+        </is>
+      </c>
+      <c r="F158" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" s="10" t="inlineStr"/>
+      <c r="H158" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="12" t="inlineStr">
+        <is>
+          <t>Point 09</t>
+        </is>
+      </c>
+      <c r="B159" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-40</t>
+        </is>
+      </c>
+      <c r="C159" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D159" s="12" t="inlineStr">
+        <is>
+          <t>Compression Connector H-Tap Assembly 4/0</t>
+        </is>
+      </c>
+      <c r="E159" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F159" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" s="13" t="inlineStr"/>
+      <c r="H159" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>Point 11</t>
+        </is>
+      </c>
+      <c r="B160" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-40</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D160" s="9" t="inlineStr">
+        <is>
+          <t>Compression Connector H-Tap Assembly 4/0</t>
+        </is>
+      </c>
+      <c r="E160" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F160" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G160" s="10" t="inlineStr"/>
+      <c r="H160" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="12" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B161" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-40</t>
+        </is>
+      </c>
+      <c r="C161" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D161" s="12" t="inlineStr">
+        <is>
+          <t>Compression Connector H-Tap Assembly 4/0</t>
+        </is>
+      </c>
+      <c r="E161" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F161" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G161" s="13" t="inlineStr"/>
+      <c r="H161" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H127" s="16" t="n">
-        <v>7190.98</v>
+      <c r="H162" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A84:H84"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A127:G127"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A162:G162"/>
+    <mergeCell ref="A104:H104"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A60:H60"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
